--- a/init.xlsx
+++ b/init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45D18E-7AEB-4F70-B4AD-C3D488FECA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26951" windowHeight="12191"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="IF" sheetId="4" r:id="rId5"/>
     <sheet name="Operator" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="97">
   <si>
     <t>Type</t>
   </si>
@@ -55,9 +49,6 @@
   </si>
   <si>
     <t>CONCATENATE</t>
-  </si>
-  <si>
-    <t>infinite</t>
   </si>
   <si>
     <t>双引号问题</t>
@@ -259,10 +250,35 @@
     <t>true</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1850</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>"Hello"</t>
   </si>
   <si>
     <r>
@@ -287,9 +303,6 @@
     </r>
   </si>
   <si>
-    <t>"Hello"</t>
-  </si>
-  <si>
     <t>"Hello</t>
   </si>
   <si>
@@ -507,73 +520,22 @@
   <si>
     <t>[Integer1]=[Text2]</t>
   </si>
-  <si>
-    <t>Formula</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpectedResults</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormulaString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Hello"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Hello</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>'null</t>
-  </si>
-  <si>
-    <t>ABS([Text1])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATAN2([Text1], [Text2])</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1850</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/1/1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="0.00000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,28 +551,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,36 +704,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -656,121 +927,404 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1028,28 +1582,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="12.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,590 +1617,592 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="26">
+        <v>3</v>
+      </c>
+      <c r="C22" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="28">
+        <v>0</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="28">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22">
         <v>2</v>
       </c>
-      <c r="C13" s="18">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="C26" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14">
-        <v>1</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="28">
+        <v>0</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="24">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14">
-        <v>1</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="C29" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="21">
-        <v>3</v>
-      </c>
-      <c r="C22" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="14">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="23">
-        <v>0</v>
-      </c>
-      <c r="C24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="23">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="17">
-        <v>2</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="23">
-        <v>0</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="19">
-        <v>1</v>
-      </c>
-      <c r="C28" s="18">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="17">
-        <v>2</v>
-      </c>
-      <c r="C29" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="14">
-        <v>1</v>
-      </c>
-      <c r="C30" s="14">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="14">
-        <v>1</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="14">
-        <v>1</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="14">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="14">
-        <v>1</v>
-      </c>
-      <c r="C34" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="14">
-        <v>1</v>
-      </c>
-      <c r="C35" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="14">
-        <v>1</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="8.88671875" style="7"/>
-    <col min="3" max="3" width="18.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="8.88888888888889" style="12"/>
+    <col min="2" max="2" width="8.88888888888889" style="7"/>
+    <col min="3" max="3" width="18.6666666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>3.2</v>
       </c>
       <c r="D2" s="9">
         <v>37957</v>
       </c>
       <c r="E2" s="10">
-        <v>0.79166666666666696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7">
         <v>-7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>-2.5</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>107</v>
+      <c r="D3" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
-        <v>1.9999899999999999</v>
+      <c r="C5" s="13">
+        <v>1.99999</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1.0000100000000001</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1.00001</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.4444444444444" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.4444444444444" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.4444444444444" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
@@ -1664,7 +2220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1672,14 +2228,14 @@
         <f>ABS(D2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>104</v>
+      <c r="C2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +2280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1739,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +2310,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +2340,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1799,7 +2355,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1829,43 +2385,44 @@
         <v>37623</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <f>ABS(H13)</f>
-        <v>0.79166666666666696</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="10">
-        <v>0.79166666666666696</v>
+        <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1906,7 +2463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1918,13 +2475,13 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1936,13 +2493,13 @@
         <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1950,17 +2507,17 @@
         <f t="shared" ref="B4:B19" si="0">ATAN2(D4,I4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>105</v>
+      <c r="C4" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1972,13 +2529,13 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1990,13 +2547,13 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2008,13 +2565,13 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2026,13 +2583,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2044,13 +2601,13 @@
         <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2062,13 +2619,13 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2080,13 +2637,13 @@
         <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2101,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2140,7 +2697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2155,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2190,11 +2747,11 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2208,11 +2765,11 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2226,11 +2783,11 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +2819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2270,7 +2827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2302,7 +2859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2313,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2327,10 +2884,10 @@
         <v>5</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2344,7 +2901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -2369,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2386,7 +2943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -2396,11 +2953,11 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -2410,11 +2967,11 @@
       <c r="E36">
         <v>5</v>
       </c>
-      <c r="I36" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2424,11 +2981,11 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2439,10 +2996,10 @@
         <v>-7</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -2453,10 +3010,10 @@
         <v>-7</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +3027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +3041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -2495,10 +3052,10 @@
         <v>-7</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +3069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -2522,11 +3079,11 @@
       <c r="E44">
         <v>-7</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -2536,11 +3093,11 @@
       <c r="E45">
         <v>-7</v>
       </c>
-      <c r="I45" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -2550,32 +3107,33 @@
       <c r="E46">
         <v>-7</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="30" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -2630,9 +3188,9 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="e">
         <f>IF(D2,I2,M2)</f>
@@ -2642,13 +3200,13 @@
         <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="7"/>
@@ -2656,9 +3214,9 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="e">
         <f t="shared" ref="B3:B12" si="0">IF(D3,I3,M3)</f>
@@ -2668,22 +3226,22 @@
         <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2693,10 +3251,10 @@
         <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>52</v>
@@ -2706,9 +3264,9 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2718,10 +3276,10 @@
         <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>53</v>
@@ -2732,9 +3290,9 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2744,13 +3302,13 @@
         <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="7"/>
@@ -2758,9 +3316,9 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2770,10 +3328,10 @@
         <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>56</v>
@@ -2783,9 +3341,9 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2795,12 +3353,12 @@
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="30" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="7"/>
@@ -2808,9 +3366,9 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2820,13 +3378,13 @@
         <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="7"/>
@@ -2834,9 +3392,9 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2846,12 +3404,12 @@
         <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>78</v>
       </c>
       <c r="N10" s="1"/>
@@ -2860,9 +3418,9 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2872,22 +3430,22 @@
         <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2897,13 +3455,13 @@
         <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="7"/>
@@ -2911,9 +3469,9 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="e">
         <f t="shared" ref="B13:B21" si="1">IF(D13,I13,M13)</f>
@@ -2923,22 +3481,22 @@
         <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="e">
         <f t="shared" si="1"/>
@@ -2948,7 +3506,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -2961,9 +3519,9 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="e">
         <f t="shared" si="1"/>
@@ -2973,7 +3531,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -2987,9 +3545,9 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="e">
         <f t="shared" si="1"/>
@@ -2999,13 +3557,13 @@
         <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="7"/>
@@ -3013,9 +3571,9 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="e">
         <f t="shared" si="1"/>
@@ -3025,7 +3583,7 @@
         <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -3038,9 +3596,9 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="e">
         <f t="shared" si="1"/>
@@ -3050,12 +3608,12 @@
         <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="30" t="s">
         <v>57</v>
       </c>
       <c r="O18" s="7"/>
@@ -3063,9 +3621,9 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="e">
         <f t="shared" si="1"/>
@@ -3075,13 +3633,13 @@
         <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>50</v>
+      <c r="M19" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="7"/>
@@ -3089,9 +3647,9 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="e">
         <f t="shared" si="1"/>
@@ -3101,12 +3659,12 @@
         <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="30" t="s">
         <v>78</v>
       </c>
       <c r="N20" s="1"/>
@@ -3115,9 +3673,9 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="e">
         <f t="shared" si="1"/>
@@ -3127,91 +3685,92 @@
         <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:9">
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:9">
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:9">
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:9">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:9">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:9">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:9">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:9">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:9">
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:9">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:9">
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9">
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:9">
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:9">
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:9">
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:9">
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:9">
       <c r="I38" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="27.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3252,7 +3811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -3264,13 +3823,13 @@
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -3282,13 +3841,13 @@
         <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -3300,13 +3859,13 @@
         <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -3318,13 +3877,13 @@
         <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -3336,13 +3895,13 @@
         <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -3354,13 +3913,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -3372,13 +3931,13 @@
         <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -3390,13 +3949,13 @@
         <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -3408,13 +3967,13 @@
         <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -3426,13 +3985,13 @@
         <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -3447,10 +4006,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +4027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3486,7 +4045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -3501,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -3522,7 +4081,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3536,11 +4095,11 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3554,11 +4113,11 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -3572,11 +4131,11 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -3584,7 +4143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -3595,10 +4154,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -3609,10 +4168,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -3626,7 +4185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3640,7 +4199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -3651,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -3668,7 +4227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3678,11 +4237,11 @@
       <c r="E27">
         <v>5</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -3692,11 +4251,11 @@
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="I28" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -3706,11 +4265,11 @@
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -3721,10 +4280,10 @@
         <v>-7</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -3735,10 +4294,10 @@
         <v>-7</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -3752,7 +4311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -3766,7 +4325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -3777,10 +4336,10 @@
         <v>-7</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -3794,7 +4353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -3804,11 +4363,11 @@
       <c r="E36">
         <v>-7</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3818,11 +4377,11 @@
       <c r="E37">
         <v>-7</v>
       </c>
-      <c r="I37" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -3832,12 +4391,12 @@
       <c r="E38">
         <v>-7</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="30" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/init.xlsx
+++ b/init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9CC9B-2B03-4392-AA12-749CC426824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E6865D-9086-4D25-A717-8BE56D3C7D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="-2600" windowWidth="19420" windowHeight="17590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29700" yWindow="-4760" windowWidth="20330" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
@@ -584,20 +584,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>850/1/1</t>
-    </r>
+    <t>负数的小数次幂，报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,11 +592,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000000000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -687,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +713,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -764,6 +749,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1072,13 +1063,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1106,7 +1097,7 @@
       <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1120,7 +1111,7 @@
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1134,7 +1125,7 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1148,16 +1139,16 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -1176,12 +1167,12 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="10">
@@ -1193,10 +1184,10 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1210,7 +1201,7 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1224,7 +1215,7 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1238,7 +1229,7 @@
       <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1255,10 +1246,10 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1283,7 +1274,7 @@
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1314,7 +1305,7 @@
       <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1339,7 +1330,7 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1353,7 +1344,7 @@
       <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G20" t="s">
@@ -1395,12 +1386,12 @@
       <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="9">
@@ -1409,11 +1400,11 @@
       <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>88</v>
+      <c r="G24" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,7 +1422,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="9">
@@ -1440,10 +1431,10 @@
       <c r="C26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1462,7 +1453,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="8">
@@ -1471,10 +1462,10 @@
       <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1488,7 +1479,7 @@
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1502,7 +1493,7 @@
       <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1516,7 +1507,7 @@
       <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1530,7 +1521,7 @@
       <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G32" t="s">
@@ -1547,7 +1538,7 @@
       <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1563,7 +1554,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1563,7 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="18.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="46.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,7 +1579,7 @@
       <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1603,10 +1594,10 @@
         <v>3.2</v>
       </c>
       <c r="D2" s="4">
-        <v>37957</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.79166666666666696</v>
+        <v>37641</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,10 +1610,10 @@
       <c r="C3" s="7">
         <v>-2.5</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>45262</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="25">
         <v>0</v>
       </c>
     </row>
@@ -1636,15 +1627,15 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="25">
         <v>0.1257175925925926</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="2">
@@ -1653,18 +1644,15 @@
       <c r="C5" s="7">
         <v>1.9999899999999999</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="7">
@@ -1680,22 +1668,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1708,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1731,12 +1719,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1">
@@ -1758,7 +1746,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="1">
@@ -1769,7 +1757,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="10">
@@ -1781,12 +1769,12 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="9">
@@ -1795,15 +1783,15 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="9">
@@ -1812,15 +1800,15 @@
       <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="8">
@@ -1829,17 +1817,11 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>SIGN(B10)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/init.xlsx
+++ b/init.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E6865D-9086-4D25-A717-8BE56D3C7D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14061C-38D8-4F9E-B7EB-106C1A948C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29700" yWindow="-4760" windowWidth="20330" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-5330" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
-    <sheet name="Value" sheetId="7" r:id="rId2"/>
-    <sheet name="Special Formula" sheetId="9" r:id="rId3"/>
-    <sheet name="Operator" sheetId="8" r:id="rId4"/>
+    <sheet name="Formula_SqlServer" sheetId="10" r:id="rId2"/>
+    <sheet name="Formula_MySql" sheetId="11" r:id="rId3"/>
+    <sheet name="Formula_Postgre" sheetId="12" r:id="rId4"/>
+    <sheet name="Value" sheetId="7" r:id="rId5"/>
+    <sheet name="Value_Postgre" sheetId="13" r:id="rId6"/>
+    <sheet name="Special Formula" sheetId="9" r:id="rId7"/>
+    <sheet name="Operator" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="102">
   <si>
     <t>Type</t>
   </si>
@@ -587,6 +591,18 @@
     <t>负数的小数次幂，报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -599,7 +615,7 @@
     <numFmt numFmtId="179" formatCode="0.00000_ "/>
     <numFmt numFmtId="180" formatCode="0.000000000000000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +635,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -675,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +777,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1241,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1415,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1550,11 +1575,258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78325629-F2D2-40E7-BAD9-98E2AF874394}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDBAF02-78FC-4029-B952-86F85A01C338}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C2EBEA-A628-40E2-9D1E-C75F02B08FEA}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1564,9 +1836,10 @@
     <col min="3" max="3" width="18.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -1582,8 +1855,11 @@
       <c r="E1" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -1599,8 +1875,11 @@
       <c r="E2" s="25">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1616,8 +1895,11 @@
       <c r="E3" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -1634,7 +1916,7 @@
         <v>0.1257175925925926</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
@@ -1648,7 +1930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
@@ -1659,7 +1941,7 @@
         <v>1.0000100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -1667,22 +1949,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
@@ -1694,7 +1976,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833837E6-B291-472A-B144-40663CFCA1C9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="18.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>37641</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-2.5</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1830,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
